--- a/sample_data/M2016/present_day_sediments/Modern_slab_data.xlsx
+++ b/sample_data/M2016/present_day_sediments/Modern_slab_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Documents/_Plato/Plato/sample_data/M2016/present_day_sediments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE34E002-D2E8-3640-943E-230FC1833919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A6F69B-09E1-3F46-8DE1-3EE89F5B355F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{22F7E818-C764-C444-873E-B42F41632704}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{22F7E818-C764-C444-873E-B42F41632704}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,13 +197,13 @@
     <t>accretion_efficiency</t>
   </si>
   <si>
-    <t>material_subduction_rate</t>
-  </si>
-  <si>
     <t>magmatic_production_rate</t>
   </si>
   <si>
     <t>crustal_growth_rate</t>
+  </si>
+  <si>
+    <t>sediment_flux</t>
   </si>
 </sst>
 </file>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E96FCB-92C7-6D41-B88C-F5567D10C364}">
   <dimension ref="A1:Q161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -630,13 +630,13 @@
         <v>52</v>
       </c>
       <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>54</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">

--- a/sample_data/M2016/present_day_sediments/Modern_slab_data.xlsx
+++ b/sample_data/M2016/present_day_sediments/Modern_slab_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Documents/_Plato/Plato/sample_data/M2016/present_day_sediments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A6F69B-09E1-3F46-8DE1-3EE89F5B355F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DBB46E-C57F-E444-90B7-69C37E79A228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{22F7E818-C764-C444-873E-B42F41632704}"/>
   </bookViews>
@@ -581,7 +581,7 @@
     <col min="12" max="12" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
   </cols>
